--- a/7rmrtsupermarket/src/test/resources/testdata.xlsx
+++ b/7rmrtsupermarket/src/test/resources/testdata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15036" windowHeight="4656" firstSheet="3" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13932" windowHeight="4644" firstSheet="3" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="loginpage" sheetId="1" r:id="rId1"/>
@@ -14,9 +14,10 @@
     <sheet name="managecontact" sheetId="5" r:id="rId5"/>
     <sheet name="managecategory" sheetId="6" r:id="rId6"/>
     <sheet name="subcategory" sheetId="7" r:id="rId7"/>
+    <sheet name="Sheet1" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:O14"/>
+  <oleSize ref="A1:M14"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -569,8 +570,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -692,7 +693,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
@@ -720,4 +721,16 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>